--- a/Lab3/Berchialla punto 1/foglio di calcolo.xlsx
+++ b/Lab3/Berchialla punto 1/foglio di calcolo.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cadf94bcb0ba48b9/DSE/LAB3_es1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lberc\Documents\Digital System Electronics\Digital\Lab3\Berchialla punto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{19DD8AD5-78B2-424C-998E-E7A1C1A93A12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1500F-E0B0-4EF4-8EB9-26160647AD3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19208" yWindow="630" windowWidth="10799" windowHeight="5693" activeTab="1" xr2:uid="{81D39DC3-410A-467C-B86F-AA2551B3A8E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{81D39DC3-410A-467C-B86F-AA2551B3A8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,16 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,18 +468,18 @@
       <selection activeCell="C9" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.265625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -540,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -570,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -600,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -630,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -660,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -690,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -720,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -750,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -780,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -810,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -900,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -930,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -960,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1004,14 +1002,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" hidden="1" customWidth="1"/>
     <col min="3" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1057,13 +1055,13 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -1074,7 +1072,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1088,13 +1086,13 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -1105,7 +1103,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1119,13 +1117,13 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
@@ -1136,7 +1134,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1150,13 +1148,13 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -1167,7 +1165,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1181,13 +1179,13 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -1198,7 +1196,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1212,13 +1210,13 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -1229,7 +1227,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1243,13 +1241,13 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -1260,7 +1258,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1274,13 +1272,13 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -1291,7 +1289,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>-8</v>
       </c>
@@ -1304,13 +1302,13 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
@@ -1323,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>-7</v>
       </c>
@@ -1336,13 +1334,13 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -1355,7 +1353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>-6</v>
       </c>
@@ -1368,13 +1366,13 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
@@ -1387,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>-5</v>
       </c>
@@ -1400,13 +1398,13 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
@@ -1419,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>-4</v>
       </c>
@@ -1432,13 +1430,13 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
@@ -1451,7 +1449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>-3</v>
       </c>
@@ -1464,13 +1462,13 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
@@ -1483,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>-2</v>
       </c>
@@ -1496,13 +1494,13 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
@@ -1515,7 +1513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>-1</v>
       </c>
@@ -1528,13 +1526,13 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
@@ -1547,7 +1545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1556,7 +1554,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1565,7 +1563,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1574,7 +1572,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1583,7 +1581,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1592,7 +1590,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1601,7 +1599,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1610,7 +1608,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1619,7 +1617,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1628,7 +1626,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1637,7 +1635,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1646,7 +1644,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1655,7 +1653,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1664,7 +1662,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1673,7 +1671,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1682,7 +1680,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
